--- a/shared_data/National estimates for web team 2021 v4.xlsx
+++ b/shared_data/National estimates for web team 2021 v4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/mroberts_csg_org/Documents/Desktop/csgjc/repos/cc_survey/shared_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroberts\OneDrive - The Council of State Governments\Desktop\csgjc\repos\cc_survey\shared_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_8B1A4EE786E1BB4B576384D7CEB79C7C8B1A52B2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4FCF2FE-2925-4865-8549-5C0E2D1709D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4280D0-F649-44BC-A680-C5F055C641AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="45" windowWidth="14385" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="22860" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -281,25 +281,24 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -309,15 +308,18 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -618,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +678,13 @@
       <c r="D2" s="8">
         <v>413798.9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="15">
         <v>-19560.2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="15">
         <v>-205649.1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="15">
         <v>-225209.3</v>
       </c>
       <c r="H2" s="1">
@@ -708,13 +710,13 @@
       <c r="D3" s="8">
         <v>176204.7</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="15">
         <v>-12768.4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="16">
         <v>-75011.3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="15">
         <v>-87779.7</v>
       </c>
       <c r="H3" s="1">
@@ -740,13 +742,13 @@
       <c r="D4" s="8">
         <v>99543.59</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="15">
         <v>-13780.22</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="15">
         <v>-41636.9</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="15">
         <v>-55417.120000000003</v>
       </c>
       <c r="H4" s="1">
@@ -772,13 +774,13 @@
       <c r="D5" s="8">
         <v>57505</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="15">
         <v>-9104.4900000000107</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="15">
         <v>-18601.45</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="15">
         <v>-27705.94</v>
       </c>
       <c r="H5" s="1">
@@ -804,13 +806,13 @@
       <c r="D6" s="8">
         <v>54601.56</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="15">
         <v>-6592.7400000000098</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="15">
         <v>-29645.41</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="15">
         <v>-36238.15</v>
       </c>
       <c r="H6" s="1">
@@ -836,13 +838,13 @@
       <c r="D7" s="8">
         <v>87966.67</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="15">
         <v>-2962.77</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="15">
         <v>-40134.39</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="15">
         <v>-43097.16</v>
       </c>
       <c r="H7" s="1">
@@ -868,13 +870,13 @@
       <c r="D8" s="8">
         <v>38604.050000000003</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="15">
         <v>-1521.95</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="15">
         <v>-15905.71</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="15">
         <v>-17427.66</v>
       </c>
       <c r="H8" s="1">
@@ -900,13 +902,13 @@
       <c r="D9" s="8">
         <v>56933.33</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <v>-1995.3500000000099</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="15">
         <v>-24905.040000000001</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="15">
         <v>-26900.39</v>
       </c>
       <c r="H9" s="1">
@@ -932,13 +934,13 @@
       <c r="D10" s="8">
         <v>1064274</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>-23522</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="15">
         <v>-170478</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="15">
         <v>-194000</v>
       </c>
       <c r="H10" s="1">
@@ -964,13 +966,13 @@
       <c r="D11" s="8">
         <v>232601.3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="15">
         <v>-10092.1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="16">
         <v>-59081.599999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="15">
         <v>-69173.7</v>
       </c>
       <c r="H11" s="1">
@@ -996,13 +998,13 @@
       <c r="D12" s="8">
         <v>138860.29999999999</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="15">
         <v>-7109.7999999999902</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="15">
         <v>-36466.699999999997</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="15">
         <v>-43576.5</v>
       </c>
       <c r="H12" s="1">
@@ -1028,13 +1030,13 @@
       <c r="D13" s="8">
         <v>89808.7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="15">
         <v>4622.6000000000104</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="15">
         <v>-38705.9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="15">
         <v>-34083.300000000003</v>
       </c>
       <c r="H13" s="1">
@@ -1060,13 +1062,13 @@
       <c r="D14" s="8">
         <v>48844.23</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="15">
         <v>-10554.19</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="15">
         <v>-19034.34</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="15">
         <v>-29588.53</v>
       </c>
       <c r="H14" s="1">
@@ -1092,13 +1094,13 @@
       <c r="D15" s="8">
         <v>118166.7</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="15">
         <v>-4195.8999999999896</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="15">
         <v>-27151.200000000001</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="15">
         <v>-31347.1</v>
       </c>
       <c r="H15" s="1">
@@ -1124,13 +1126,13 @@
       <c r="D16" s="8">
         <v>98314.29</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="15">
         <v>-19.729999999995901</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="15">
         <v>-25524.04</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="15">
         <v>-25543.77</v>
       </c>
       <c r="H16" s="1">
@@ -1156,13 +1158,13 @@
       <c r="D17" s="8">
         <v>42375.81</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="15">
         <v>-4230.93</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="15">
         <v>-10222.67</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="15">
         <v>-14453.6</v>
       </c>
       <c r="H17" s="1">
@@ -1174,6 +1176,11 @@
       <c r="J17" s="1">
         <v>-0.25433309971016799</v>
       </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1191,15 +1198,15 @@
         <f t="shared" si="0"/>
         <v>111534.89</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="15">
         <f>C19-B19</f>
         <v>-8588.0899999999965</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="15">
         <f>D19-C19</f>
         <v>-54550.45</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="15">
         <f>D19-B19</f>
         <v>-63138.539999999994</v>
       </c>
@@ -1224,15 +1231,15 @@
         <f t="shared" si="1"/>
         <v>96109.05</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="15">
         <f>C20-B20</f>
         <v>-10626.440000000002</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="15">
         <f>D20-C20</f>
         <v>-34507.159999999989</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="15">
         <f>D20-B20</f>
         <v>-45133.599999999991</v>
       </c>
@@ -1251,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A113B71-7B72-4CD1-A63A-7C813D0DCCFF}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1262,50 +1269,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="10">
         <v>2018</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>2019</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <v>2020</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>Overall!B2</f>
         <v>639008.19999999995</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <f>Overall!C2</f>
         <v>619448</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <f>Overall!D2</f>
         <v>413798.9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <f>Overall!B3</f>
         <v>263984.40000000002</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>Overall!C3</f>
         <v>251216</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f>Overall!D3</f>
         <v>176204.7</v>
       </c>
@@ -1346,50 +1353,50 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <f>Overall!B2-Overall!B3</f>
         <v>375023.79999999993</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f>Overall!C2-Overall!C3</f>
         <v>368232</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>Overall!D2-Overall!D3</f>
         <v>237594.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2018</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>2019</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f>Overall!B6+Overall!B9</f>
         <v>174673.43</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f>Overall!C6+Overall!C9</f>
         <v>166085.34</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>Overall!D6+Overall!D9</f>
         <v>111534.89</v>
       </c>
@@ -1430,18 +1437,18 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>Overall!B5+Overall!B8</f>
         <v>141242.65</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>Overall!C5+Overall!C8</f>
         <v>130616.20999999999</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>Overall!D5+Overall!D8</f>
         <v>96109.05</v>
       </c>
@@ -1482,49 +1489,49 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>2018</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>2019</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <f>Overall!B10</f>
         <v>1258274</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <f>Overall!C10</f>
         <v>1234752</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f>Overall!D10</f>
         <v>1064274</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <f>Overall!B11</f>
         <v>301775</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <f>Overall!C11</f>
         <v>291682.90000000002</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f>Overall!D11</f>
         <v>232601.3</v>
       </c>
@@ -1581,18 +1588,18 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <f>Overall!B14+Overall!B17</f>
         <v>135262.16999999998</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <f>Overall!C14+Overall!C17</f>
         <v>120477.05000000002</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f>Overall!D14+Overall!D17</f>
         <v>91220.040000000008</v>
       </c>
@@ -1632,18 +1639,18 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <f>Overall!B13+Overall!B16</f>
         <v>247750.06</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <f>Overall!C13+Overall!C16</f>
         <v>252352.93</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <f>Overall!D13+Overall!D16</f>
         <v>188122.99</v>
       </c>
